--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N2">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O2">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P2">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q2">
-        <v>14.73550209715359</v>
+        <v>1.855564572708333</v>
       </c>
       <c r="R2">
-        <v>14.73550209715359</v>
+        <v>16.700081154375</v>
       </c>
       <c r="S2">
-        <v>0.0225193411535342</v>
+        <v>0.002458287280106466</v>
       </c>
       <c r="T2">
-        <v>0.0225193411535342</v>
+        <v>0.002458287280106466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N3">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P3">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q3">
-        <v>72.14797610897934</v>
+        <v>8.837985961275777</v>
       </c>
       <c r="R3">
-        <v>72.14797610897934</v>
+        <v>79.54187365148199</v>
       </c>
       <c r="S3">
-        <v>0.1102592145705699</v>
+        <v>0.01170873209691248</v>
       </c>
       <c r="T3">
-        <v>0.1102592145705699</v>
+        <v>0.01170873209691248</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N4">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q4">
-        <v>219.0852582666916</v>
+        <v>26.696126837539</v>
       </c>
       <c r="R4">
-        <v>219.0852582666916</v>
+        <v>240.265141537851</v>
       </c>
       <c r="S4">
-        <v>0.3348142221479372</v>
+        <v>0.03536753718952711</v>
       </c>
       <c r="T4">
-        <v>0.3348142221479372</v>
+        <v>0.03536753718952711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N5">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q5">
-        <v>154.3462549460083</v>
+        <v>19.03787943467367</v>
       </c>
       <c r="R5">
-        <v>154.3462549460083</v>
+        <v>171.340914912063</v>
       </c>
       <c r="S5">
-        <v>0.2358776747465518</v>
+        <v>0.02522174519971022</v>
       </c>
       <c r="T5">
-        <v>0.2358776747465518</v>
+        <v>0.02522174519971021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N6">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q6">
-        <v>106.1936724095206</v>
+        <v>13.97264626859056</v>
       </c>
       <c r="R6">
-        <v>106.1936724095206</v>
+        <v>125.753816417315</v>
       </c>
       <c r="S6">
-        <v>0.1622891111256119</v>
+        <v>0.01851122784768878</v>
       </c>
       <c r="T6">
-        <v>0.1622891111256119</v>
+        <v>0.01851122784768878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N7">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O7">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P7">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q7">
-        <v>0.5556861535501002</v>
+        <v>15.4723759125</v>
       </c>
       <c r="R7">
-        <v>0.5556861535501002</v>
+        <v>139.2513832125</v>
       </c>
       <c r="S7">
-        <v>0.0008492202019032063</v>
+        <v>0.02049809823821369</v>
       </c>
       <c r="T7">
-        <v>0.0008492202019032063</v>
+        <v>0.02049809823821369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N8">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P8">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q8">
-        <v>2.720750950058743</v>
+        <v>73.69435864076</v>
       </c>
       <c r="R8">
-        <v>2.720750950058743</v>
+        <v>663.24922776684</v>
       </c>
       <c r="S8">
-        <v>0.004157952571565942</v>
+        <v>0.0976316896359824</v>
       </c>
       <c r="T8">
-        <v>0.004157952571565942</v>
+        <v>0.09763168963598243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N9">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q9">
-        <v>8.261859260924998</v>
+        <v>222.60206727018</v>
       </c>
       <c r="R9">
-        <v>8.261859260924998</v>
+        <v>2003.41860543162</v>
       </c>
       <c r="S9">
-        <v>0.01262607992809386</v>
+        <v>0.2949074575707056</v>
       </c>
       <c r="T9">
-        <v>0.01262607992809386</v>
+        <v>0.2949074575707056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N10">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q10">
-        <v>5.820505888454119</v>
+        <v>158.74480011234</v>
       </c>
       <c r="R10">
-        <v>5.820505888454119</v>
+        <v>1428.70320101106</v>
       </c>
       <c r="S10">
-        <v>0.008895113103310683</v>
+        <v>0.2103081340519583</v>
       </c>
       <c r="T10">
-        <v>0.008895113103310683</v>
+        <v>0.2103081340519583</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N11">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q11">
-        <v>4.004638115724929</v>
+        <v>116.5090338217</v>
       </c>
       <c r="R11">
-        <v>4.004638115724929</v>
+        <v>1048.5813043953</v>
       </c>
       <c r="S11">
-        <v>0.006120036584425322</v>
+        <v>0.154353386604778</v>
       </c>
       <c r="T11">
-        <v>0.006120036584425322</v>
+        <v>0.154353386604778</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H12">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I12">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J12">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N12">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O12">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P12">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q12">
-        <v>1.729128606584071</v>
+        <v>0.622377613125</v>
       </c>
       <c r="R12">
-        <v>1.729128606584071</v>
+        <v>5.601398518125</v>
       </c>
       <c r="S12">
-        <v>0.002642518506208458</v>
+        <v>0.0008245377133575508</v>
       </c>
       <c r="T12">
-        <v>0.002642518506208458</v>
+        <v>0.0008245377133575511</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H13">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I13">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J13">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N13">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P13">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q13">
-        <v>8.466160743940881</v>
+        <v>2.964361730285999</v>
       </c>
       <c r="R13">
-        <v>8.466160743940881</v>
+        <v>26.679255572574</v>
       </c>
       <c r="S13">
-        <v>0.01293830103626338</v>
+        <v>0.003927242868492678</v>
       </c>
       <c r="T13">
-        <v>0.01293830103626338</v>
+        <v>0.00392724286849268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H14">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I14">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J14">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N14">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q14">
-        <v>25.70842750061245</v>
+        <v>8.954186744672997</v>
       </c>
       <c r="R14">
-        <v>25.70842750061245</v>
+        <v>80.58768070205699</v>
       </c>
       <c r="S14">
-        <v>0.03928857297092194</v>
+        <v>0.01186267710748512</v>
       </c>
       <c r="T14">
-        <v>0.03928857297092194</v>
+        <v>0.01186267710748512</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H15">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I15">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J15">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N15">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q15">
-        <v>18.11166820015006</v>
+        <v>6.385522840748999</v>
       </c>
       <c r="R15">
-        <v>18.11166820015006</v>
+        <v>57.469705566741</v>
       </c>
       <c r="S15">
-        <v>0.02767892348490665</v>
+        <v>0.008459662254346117</v>
       </c>
       <c r="T15">
-        <v>0.02767892348490665</v>
+        <v>0.008459662254346119</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N16">
+        <v>47.115095</v>
+      </c>
+      <c r="O16">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P16">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q16">
+        <v>4.686585614744999</v>
+      </c>
+      <c r="R16">
+        <v>42.179270532705</v>
+      </c>
+      <c r="S16">
+        <v>0.006208877865695538</v>
+      </c>
+      <c r="T16">
+        <v>0.00620887786569554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.085625</v>
+      </c>
+      <c r="N17">
+        <v>6.256875</v>
+      </c>
+      <c r="O17">
+        <v>0.02635737528678909</v>
+      </c>
+      <c r="P17">
+        <v>0.0263573752867891</v>
+      </c>
+      <c r="Q17">
+        <v>1.94475771625</v>
+      </c>
+      <c r="R17">
+        <v>17.50281944625</v>
+      </c>
+      <c r="S17">
+        <v>0.00257645205511139</v>
+      </c>
+      <c r="T17">
+        <v>0.002576452055111391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.933755333333332</v>
+      </c>
+      <c r="N18">
+        <v>29.801266</v>
+      </c>
+      <c r="O18">
+        <v>0.1255392111850449</v>
+      </c>
+      <c r="P18">
+        <v>0.125539211185045</v>
+      </c>
+      <c r="Q18">
+        <v>9.262809630609333</v>
+      </c>
+      <c r="R18">
+        <v>83.36528667548401</v>
+      </c>
+      <c r="S18">
+        <v>0.01227154658365737</v>
+      </c>
+      <c r="T18">
+        <v>0.01227154658365737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>14.4409749270949</v>
-      </c>
-      <c r="N16">
-        <v>14.4409749270949</v>
-      </c>
-      <c r="O16">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="P16">
-        <v>0.1874528655782328</v>
-      </c>
-      <c r="Q16">
-        <v>12.46123244331046</v>
-      </c>
-      <c r="R16">
-        <v>12.46123244331046</v>
-      </c>
-      <c r="S16">
-        <v>0.01904371786819554</v>
-      </c>
-      <c r="T16">
-        <v>0.01904371786819554</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.00602099999999</v>
+      </c>
+      <c r="N19">
+        <v>90.01806299999998</v>
+      </c>
+      <c r="O19">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="P19">
+        <v>0.37920525327433</v>
+      </c>
+      <c r="Q19">
+        <v>27.979354329618</v>
+      </c>
+      <c r="R19">
+        <v>251.814188966562</v>
+      </c>
+      <c r="S19">
+        <v>0.03706758140661218</v>
+      </c>
+      <c r="T19">
+        <v>0.03706758140661218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.398273</v>
+      </c>
+      <c r="N20">
+        <v>64.194819</v>
+      </c>
+      <c r="O20">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="P20">
+        <v>0.2704236437279791</v>
+      </c>
+      <c r="Q20">
+        <v>19.952990845034</v>
+      </c>
+      <c r="R20">
+        <v>179.576917605306</v>
+      </c>
+      <c r="S20">
+        <v>0.02643410222196444</v>
+      </c>
+      <c r="T20">
+        <v>0.02643410222196443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.70503166666666</v>
+      </c>
+      <c r="N21">
+        <v>47.115095</v>
+      </c>
+      <c r="O21">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="P21">
+        <v>0.1984745165258568</v>
+      </c>
+      <c r="Q21">
+        <v>14.64428241783667</v>
+      </c>
+      <c r="R21">
+        <v>131.79854176053</v>
+      </c>
+      <c r="S21">
+        <v>0.01940102420769448</v>
+      </c>
+      <c r="T21">
+        <v>0.01940102420769448</v>
       </c>
     </row>
   </sheetData>
